--- a/dolphintwo/evidence.xlsx
+++ b/dolphintwo/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Documents/hashquark/devops/0TODO/gon-evidence/dolphintwo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48092AE9-00E0-834E-A782-44F165748A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52459AAD-267A-2E45-A9A2-2A4B03C20602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="-18080" windowWidth="26220" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="-18680" windowWidth="26220" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
   <si>
     <t>TxHash</t>
   </si>
@@ -77,24 +77,6 @@
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -141,6 +123,125 @@
   </si>
   <si>
     <t>omniflix1a055aftycf8tcrwx5latqyxra4r4wvpgalcc9n</t>
+  </si>
+  <si>
+    <t>B8E39E1C4D6EEA729D77DAF2D26F1B81CE98F86B1AFD64668E822727285702E2</t>
+  </si>
+  <si>
+    <t>ddnft</t>
+  </si>
+  <si>
+    <t>739B02F597B4EDBF87EFC89801365DC6B5559659C98163844DC3C57B6DCC9335</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29D6CC88EE809CA155EFCFDB217790EA5CA21CB55166531E77F830873FEADE7D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E12D95474093B50282D78F04BE5F54A349360FF4BF121A55CC3305611C0367E1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>775B65CBB73067CB9354D902C6C5422C5F44A393CC3B985D22D8428B9CB1E260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC1504BF6F02251B4876F61CEBC4C73689E6CC128CB68AADDEB72920D8DD6E29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddn1</t>
+  </si>
+  <si>
+    <t>ddn2</t>
+  </si>
+  <si>
+    <t>ddn3</t>
+  </si>
+  <si>
+    <t>ddn4</t>
+  </si>
+  <si>
+    <t>ddn5</t>
+  </si>
+  <si>
+    <t>8E7D0E8E82E218B6E1413339854ABD590CE03B946FD2A7F0813335E8E71E1083</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract-Addr</t>
+  </si>
+  <si>
+    <t>D73CEE9720E917FE910A46A2C0949EC540ADD2137F6C5A2B368DCE9A2DA30641</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddn3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars1yqfl74853330krw82ye99uxacrdp8x9267t0wkd8jk2y7l7y7r2qj9hm2e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ddnft</t>
+  </si>
+  <si>
+    <t>D718E638FB361BEF3B61D3AA6FA58AC1212F6EB774A9DDD51333D97D32A14F02</t>
+  </si>
+  <si>
+    <t>D09921292D93272BB3FDD55598EDF36D051C0A6FC5E65536F1C158266FA36AED</t>
+  </si>
+  <si>
+    <t>ddn5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>ibc/80F44B622197B3F4CF25D1D7510A7F5BA50B3BBFC9DCA9B7659FB6572103BFB5</t>
+  </si>
+  <si>
+    <t>ddn6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>denom_id</t>
+  </si>
+  <si>
+    <t>C48D8C36733533D59D2F3DF5F0B8BE995CA84D62858A91FA995C62AA4BCFC720</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ddnft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58CC4B9CD6ACB52D81D724FD58A7A805C277392E5421C2400D9AC7854A11A804</t>
+  </si>
+  <si>
+    <t>B3AA3EEC0916BAD756B42075F1BC3D57443F1D0A160313B6B0806DA5A48E1F17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -221,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -233,6 +334,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -542,7 +646,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -560,51 +664,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1154,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1067,10 +1173,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1318,9 +1424,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1341,13 +1449,68 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1361,18 +1524,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,18 +1552,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1411,9 +1608,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1422,7 +1621,7 @@
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,19 +1635,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1463,7 +1689,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1488,16 +1716,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1741,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1539,16 +1769,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/dolphintwo/evidence.xlsx
+++ b/dolphintwo/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Documents/hashquark/devops/0TODO/gon-evidence/dolphintwo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52459AAD-267A-2E45-A9A2-2A4B03C20602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C506A-2FF9-9D4E-BD70-E5598EFF2AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="-18680" windowWidth="26220" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="-18680" windowWidth="26220" windowHeight="13620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -200,47 +200,49 @@
     <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ddnft</t>
   </si>
   <si>
-    <t>D718E638FB361BEF3B61D3AA6FA58AC1212F6EB774A9DDD51333D97D32A14F02</t>
+    <t>ddn5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>ibc/80F44B622197B3F4CF25D1D7510A7F5BA50B3BBFC9DCA9B7659FB6572103BFB5</t>
+  </si>
+  <si>
+    <t>ddn6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>denom_id</t>
+  </si>
+  <si>
+    <t>C48D8C36733533D59D2F3DF5F0B8BE995CA84D62858A91FA995C62AA4BCFC720</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ddnft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58CC4B9CD6ACB52D81D724FD58A7A805C277392E5421C2400D9AC7854A11A804</t>
+  </si>
+  <si>
+    <t>B3AA3EEC0916BAD756B42075F1BC3D57443F1D0A160313B6B0806DA5A48E1F17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5072A2E5551F2F117C0D71DAD5FD23289CCED87CB7846FB65FB836DA33613558</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D09921292D93272BB3FDD55598EDF36D051C0A6FC5E65536F1C158266FA36AED</t>
-  </si>
-  <si>
-    <t>ddn5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gon-flixnet-1</t>
-  </si>
-  <si>
-    <t>ibc/80F44B622197B3F4CF25D1D7510A7F5BA50B3BBFC9DCA9B7659FB6572103BFB5</t>
-  </si>
-  <si>
-    <t>ddn6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>denom_id</t>
-  </si>
-  <si>
-    <t>C48D8C36733533D59D2F3DF5F0B8BE995CA84D62858A91FA995C62AA4BCFC720</t>
-  </si>
-  <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ddnft</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gon-irishub-1</t>
-  </si>
-  <si>
-    <t>gon-irishub-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58CC4B9CD6ACB52D81D724FD58A7A805C277392E5421C2400D9AC7854A11A804</t>
-  </si>
-  <si>
-    <t>B3AA3EEC0916BAD756B42075F1BC3D57443F1D0A160313B6B0806DA5A48E1F17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,9 +336,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1504,13 +1503,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1610,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1635,43 +1634,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1716,16 +1718,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1743,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1769,16 +1771,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/dolphintwo/evidence.xlsx
+++ b/dolphintwo/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Documents/hashquark/devops/0TODO/gon-evidence/dolphintwo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368C506A-2FF9-9D4E-BD70-E5598EFF2AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16645ED4-7BDA-014C-961E-5D22ED283884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="-18680" windowWidth="26220" windowHeight="13620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="-19600" windowWidth="26220" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="56">
   <si>
     <t>TxHash</t>
   </si>
@@ -193,13 +193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>class_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ddnft</t>
-  </si>
-  <si>
     <t>ddn5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -214,9 +207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>denom_id</t>
-  </si>
-  <si>
     <t>C48D8C36733533D59D2F3DF5F0B8BE995CA84D62858A91FA995C62AA4BCFC720</t>
   </si>
   <si>
@@ -224,13 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gon-irishub-1</t>
-  </si>
-  <si>
-    <t>gon-irishub-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>58CC4B9CD6ACB52D81D724FD58A7A805C277392E5421C2400D9AC7854A11A804</t>
   </si>
   <si>
@@ -244,6 +227,9 @@
   <si>
     <t>D09921292D93272BB3FDD55598EDF36D051C0A6FC5E65536F1C158266FA36AED</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
   </si>
 </sst>
 </file>
@@ -1503,13 +1489,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1523,10 +1509,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1556,7 +1542,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -1570,7 +1556,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -1588,14 +1574,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1636,30 +1614,30 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1669,12 +1647,8 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -1692,7 +1666,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1718,10 +1692,10 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -1743,7 +1717,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1771,16 +1745,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/dolphintwo/evidence.xlsx
+++ b/dolphintwo/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Documents/hashquark/devops/0TODO/gon-evidence/dolphintwo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16645ED4-7BDA-014C-961E-5D22ED283884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D630201-67E5-BA48-A573-A7F403CF53D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="-19600" windowWidth="26220" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29280" windowHeight="18880" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -230,6 +215,214 @@
   </si>
   <si>
     <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>ibc/642A6D4A68C482278B7EB54AAED7C32E376187F8997F020C0FE0F50C8D473CA9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/DB95E45BE40C85728461C733774FB7286BA4C171843FBA7EAE893B917012CC70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/45C624656EE111704905A4ABE80AA53DBA7FFAA6C9026E0E3F8009CF489E778C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/3BA51B8E7E951E47B8D79BF7FE16340AA1A1DA8CD6433810F5128583C536C15A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/B4881A9C3C2E59CE5C6E100E007E24BB348139C7223D7128E71F9F18AB57DA4F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/81491985C391BFB9F149F95CD7C221BA9511E3FB0EE74918C965DB013393B0CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B842620DAE04680C8A42F7E6386BA96B6ED52A396525C140587A3EEEBCF21978</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6F9B5FD695C3F6D576FAF2A9DFEEF0390D4FE7D661A1549B8A61BA0027DB2FFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6E0F6AB730C01847091621D1305199712C8BA9C95DC8EDEE1FCF145E155BD40F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2EA8098788AD0D55D0E6149E8A2B9135EDDE14A392B8EE022419D26A5AADC0FD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>689ADA5CC09A51A02D9A00A1D459A9A8EFED1DE12F77915165AA19C6F7C370A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0F78C0C8B481B0BAD25E5CD084FFCC47382E700B50E5F9EDFBC3ED3D70B090A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14F3DF23FA69A4514193D83551236BA39A7B1C8436D70A1EDEA9059010E0AB78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>135565E5BDA54ACABD5BE71FE45F121F470DCEC2C85A60125A45F7A777A0011E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02605FC62FEC268B046318CA63C6FA335670FA544A84B4B66085F35F71439A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B92BD9B650895C0865242D26054275BE8B614DC7B2EE2C3F3104BDADA8C7EDF5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEA8D18E513C023DC50A49A759F53239B8E814D28548A49173EC38C5C74C3C72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85B05A508B7C1180DCA00DEA98E31457CD98E64D12E1E280B05017A16DC0828E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36B84832F23D2EC90118D529CF56D662C02BBEB318DE4BD8F60A7A72AAA7934E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4EF1180906473294BF83A9FF635116CA0200740EB3B5C2E943971A20906F1D0E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00E781D5028497AFECEEDA4BF4EBFC17581EE9E84CD92D418FB8F8D286F741EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB77880EF909B565980A4436C09C9837874464C74E3F386F27084CAC63319C9B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE15DCF42F6528940014C89FF0E93900B80DE96CDFCC233DF0B0EE075F015BFC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE49BE5286F2C13E53965173EB71043CA67000C2DCAB4D72BDC1B145FB1CF040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F2081436AA987BA20655AF12707B07140C59BBDD4B81DDABBEE4C9315E72090</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBD5C23AD64D2C81B748973FEA7BE24088451CD6E425A08FF7B2CA3E40A548EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3560B5E205A0187DC1D1CC63C1ECB5F160189FED80F69CF022A748D422920A0E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03F87232E2CC13FBCE08DAD39BB35071EA1F368FE5FE03CCAB8F2FF0048DFA86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0DD877067EA5B69B2EAD0EAE2B8541104B9913C1270EDF3E26E1D4FA65846131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516B266DECE6C09B7B31D5DECF7816AA529F5C9B074B5071296767BFEBA7C5C9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1CF7530E01CB9998AF0A86C258921ED9EA32FA5961603F1B7717A54DDB776684</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9E37239AFE81ED62361DD4EBF5C6E8FDF190FF53D8D636E6BDC545898F092CED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52860E1893122A616CA0FDE2D2D6EC668AA7FA7D5EB0FFAEA87633636601953B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA256843D9F9A9B90151AA17457E88C1050ABF49A14AF280C28E00AA802AA580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B88ED3DB0C34BDA3957E3CB2729F41D16314CDB0594D66BA1413E1676878049E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>434B9E43DBC7EA4E68E117D499B831AA909B777BF5D6BF645CFB66573B3E2FBD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A44445A2140C14EA07CA1193E085DBD6EE2F7476FB896294F5A9C607BCC02252</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97AD706138381DB0C30E7F998C4F3F54359156C8E40B7C605BD84105079771EA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>916A5DAB2E36C7B3A0E381BC146A3780A335F177F2CE215DDA681E6EFFBFE912</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79A4C426A0E050AD0679449634FBBC97BC9ED0B6E7CF33232061482311D1B769</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84F4AD97B49ADC3C21C0EDC1ED4616CA8E887489C2CDA9470558F095AE2DC666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>077DBAFE7D34E3B0D177F3D5B4389D1FFF7370B4DAAED61ED0A232A5114A421B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -649,51 +842,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -704,436 +897,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1145,23 +908,626 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1175,9 +1541,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1185,7 +1553,7 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,23 +1561,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1222,9 +1631,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1232,7 +1643,7 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,23 +1651,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1426,76 +1897,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1528,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1539,39 +2010,39 @@
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1603,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1614,30 +2085,30 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1681,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1692,16 +2163,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +2188,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1734,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1745,16 +2216,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +2241,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1780,18 +2253,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +2280,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1817,18 +2292,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/dolphintwo/evidence.xlsx
+++ b/dolphintwo/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Documents/hashquark/devops/0TODO/gon-evidence/dolphintwo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D630201-67E5-BA48-A573-A7F403CF53D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E070AB28-C95D-DC4B-A69C-4C70937286EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29280" windowHeight="18880" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
   <si>
     <t>TxHash</t>
   </si>
@@ -159,13 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Contract-Addr</t>
-  </si>
-  <si>
-    <t>D73CEE9720E917FE910A46A2C0949EC540ADD2137F6C5A2B368DCE9A2DA30641</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ddn3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,254 +167,246 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ddn5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>ibc/80F44B622197B3F4CF25D1D7510A7F5BA50B3BBFC9DCA9B7659FB6572103BFB5</t>
+  </si>
+  <si>
+    <t>ddn6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C48D8C36733533D59D2F3DF5F0B8BE995CA84D62858A91FA995C62AA4BCFC720</t>
+  </si>
+  <si>
+    <t>58CC4B9CD6ACB52D81D724FD58A7A805C277392E5421C2400D9AC7854A11A804</t>
+  </si>
+  <si>
+    <t>B3AA3EEC0916BAD756B42075F1BC3D57443F1D0A160313B6B0806DA5A48E1F17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D09921292D93272BB3FDD55598EDF36D051C0A6FC5E65536F1C158266FA36AED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>ibc/642A6D4A68C482278B7EB54AAED7C32E376187F8997F020C0FE0F50C8D473CA9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/DB95E45BE40C85728461C733774FB7286BA4C171843FBA7EAE893B917012CC70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/45C624656EE111704905A4ABE80AA53DBA7FFAA6C9026E0E3F8009CF489E778C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/3BA51B8E7E951E47B8D79BF7FE16340AA1A1DA8CD6433810F5128583C536C15A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/B4881A9C3C2E59CE5C6E100E007E24BB348139C7223D7128E71F9F18AB57DA4F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/81491985C391BFB9F149F95CD7C221BA9511E3FB0EE74918C965DB013393B0CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddnftP2A12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B842620DAE04680C8A42F7E6386BA96B6ED52A396525C140587A3EEEBCF21978</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6F9B5FD695C3F6D576FAF2A9DFEEF0390D4FE7D661A1549B8A61BA0027DB2FFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6E0F6AB730C01847091621D1305199712C8BA9C95DC8EDEE1FCF145E155BD40F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2EA8098788AD0D55D0E6149E8A2B9135EDDE14A392B8EE022419D26A5AADC0FD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>689ADA5CC09A51A02D9A00A1D459A9A8EFED1DE12F77915165AA19C6F7C370A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0F78C0C8B481B0BAD25E5CD084FFCC47382E700B50E5F9EDFBC3ED3D70B090A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14F3DF23FA69A4514193D83551236BA39A7B1C8436D70A1EDEA9059010E0AB78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>135565E5BDA54ACABD5BE71FE45F121F470DCEC2C85A60125A45F7A777A0011E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02605FC62FEC268B046318CA63C6FA335670FA544A84B4B66085F35F71439A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B92BD9B650895C0865242D26054275BE8B614DC7B2EE2C3F3104BDADA8C7EDF5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEA8D18E513C023DC50A49A759F53239B8E814D28548A49173EC38C5C74C3C72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85B05A508B7C1180DCA00DEA98E31457CD98E64D12E1E280B05017A16DC0828E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36B84832F23D2EC90118D529CF56D662C02BBEB318DE4BD8F60A7A72AAA7934E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4EF1180906473294BF83A9FF635116CA0200740EB3B5C2E943971A20906F1D0E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00E781D5028497AFECEEDA4BF4EBFC17581EE9E84CD92D418FB8F8D286F741EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB77880EF909B565980A4436C09C9837874464C74E3F386F27084CAC63319C9B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE15DCF42F6528940014C89FF0E93900B80DE96CDFCC233DF0B0EE075F015BFC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE49BE5286F2C13E53965173EB71043CA67000C2DCAB4D72BDC1B145FB1CF040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F2081436AA987BA20655AF12707B07140C59BBDD4B81DDABBEE4C9315E72090</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBD5C23AD64D2C81B748973FEA7BE24088451CD6E425A08FF7B2CA3E40A548EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3560B5E205A0187DC1D1CC63C1ECB5F160189FED80F69CF022A748D422920A0E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03F87232E2CC13FBCE08DAD39BB35071EA1F368FE5FE03CCAB8F2FF0048DFA86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0DD877067EA5B69B2EAD0EAE2B8541104B9913C1270EDF3E26E1D4FA65846131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516B266DECE6C09B7B31D5DECF7816AA529F5C9B074B5071296767BFEBA7C5C9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1CF7530E01CB9998AF0A86C258921ED9EA32FA5961603F1B7717A54DDB776684</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9E37239AFE81ED62361DD4EBF5C6E8FDF190FF53D8D636E6BDC545898F092CED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52860E1893122A616CA0FDE2D2D6EC668AA7FA7D5EB0FFAEA87633636601953B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA256843D9F9A9B90151AA17457E88C1050ABF49A14AF280C28E00AA802AA580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B88ED3DB0C34BDA3957E3CB2729F41D16314CDB0594D66BA1413E1676878049E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>434B9E43DBC7EA4E68E117D499B831AA909B777BF5D6BF645CFB66573B3E2FBD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A44445A2140C14EA07CA1193E085DBD6EE2F7476FB896294F5A9C607BCC02252</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97AD706138381DB0C30E7F998C4F3F54359156C8E40B7C605BD84105079771EA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>916A5DAB2E36C7B3A0E381BC146A3780A335F177F2CE215DDA681E6EFFBFE912</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79A4C426A0E050AD0679449634FBBC97BC9ED0B6E7CF33232061482311D1B769</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84F4AD97B49ADC3C21C0EDC1ED4616CA8E887489C2CDA9470558F095AE2DC666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>077DBAFE7D34E3B0D177F3D5B4389D1FFF7370B4DAAED61ED0A232A5114A421B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>stars1yqfl74853330krw82ye99uxacrdp8x9267t0wkd8jk2y7l7y7r2qj9hm2e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddn5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gon-flixnet-1</t>
-  </si>
-  <si>
-    <t>ibc/80F44B622197B3F4CF25D1D7510A7F5BA50B3BBFC9DCA9B7659FB6572103BFB5</t>
-  </si>
-  <si>
-    <t>ddn6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C48D8C36733533D59D2F3DF5F0B8BE995CA84D62858A91FA995C62AA4BCFC720</t>
-  </si>
-  <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ddnft</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58CC4B9CD6ACB52D81D724FD58A7A805C277392E5421C2400D9AC7854A11A804</t>
-  </si>
-  <si>
-    <t>B3AA3EEC0916BAD756B42075F1BC3D57443F1D0A160313B6B0806DA5A48E1F17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5072A2E5551F2F117C0D71DAD5FD23289CCED87CB7846FB65FB836DA33613558</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D09921292D93272BB3FDD55598EDF36D051C0A6FC5E65536F1C158266FA36AED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elgafar-1</t>
-  </si>
-  <si>
-    <t>ibc/642A6D4A68C482278B7EB54AAED7C32E376187F8997F020C0FE0F50C8D473CA9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddnftP2A7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ibc/DB95E45BE40C85728461C733774FB7286BA4C171843FBA7EAE893B917012CC70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddnftP2A8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ibc/45C624656EE111704905A4ABE80AA53DBA7FFAA6C9026E0E3F8009CF489E778C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddnftP2A9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ibc/3BA51B8E7E951E47B8D79BF7FE16340AA1A1DA8CD6433810F5128583C536C15A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddnftP2A10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ibc/B4881A9C3C2E59CE5C6E100E007E24BB348139C7223D7128E71F9F18AB57DA4F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddnftP2A11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ibc/81491985C391BFB9F149F95CD7C221BA9511E3FB0EE74918C965DB013393B0CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddnftP2A12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B842620DAE04680C8A42F7E6386BA96B6ED52A396525C140587A3EEEBCF21978</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6F9B5FD695C3F6D576FAF2A9DFEEF0390D4FE7D661A1549B8A61BA0027DB2FFA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6E0F6AB730C01847091621D1305199712C8BA9C95DC8EDEE1FCF145E155BD40F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2EA8098788AD0D55D0E6149E8A2B9135EDDE14A392B8EE022419D26A5AADC0FD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>689ADA5CC09A51A02D9A00A1D459A9A8EFED1DE12F77915165AA19C6F7C370A3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0F78C0C8B481B0BAD25E5CD084FFCC47382E700B50E5F9EDFBC3ED3D70B090A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14F3DF23FA69A4514193D83551236BA39A7B1C8436D70A1EDEA9059010E0AB78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>135565E5BDA54ACABD5BE71FE45F121F470DCEC2C85A60125A45F7A777A0011E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D02605FC62FEC268B046318CA63C6FA335670FA544A84B4B66085F35F71439A5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B92BD9B650895C0865242D26054275BE8B614DC7B2EE2C3F3104BDADA8C7EDF5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEA8D18E513C023DC50A49A759F53239B8E814D28548A49173EC38C5C74C3C72</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>85B05A508B7C1180DCA00DEA98E31457CD98E64D12E1E280B05017A16DC0828E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36B84832F23D2EC90118D529CF56D662C02BBEB318DE4BD8F60A7A72AAA7934E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4EF1180906473294BF83A9FF635116CA0200740EB3B5C2E943971A20906F1D0E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00E781D5028497AFECEEDA4BF4EBFC17581EE9E84CD92D418FB8F8D286F741EE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EB77880EF909B565980A4436C09C9837874464C74E3F386F27084CAC63319C9B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE15DCF42F6528940014C89FF0E93900B80DE96CDFCC233DF0B0EE075F015BFC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE49BE5286F2C13E53965173EB71043CA67000C2DCAB4D72BDC1B145FB1CF040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1F2081436AA987BA20655AF12707B07140C59BBDD4B81DDABBEE4C9315E72090</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBD5C23AD64D2C81B748973FEA7BE24088451CD6E425A08FF7B2CA3E40A548EE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3560B5E205A0187DC1D1CC63C1ECB5F160189FED80F69CF022A748D422920A0E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03F87232E2CC13FBCE08DAD39BB35071EA1F368FE5FE03CCAB8F2FF0048DFA86</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0DD877067EA5B69B2EAD0EAE2B8541104B9913C1270EDF3E26E1D4FA65846131</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>516B266DECE6C09B7B31D5DECF7816AA529F5C9B074B5071296767BFEBA7C5C9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1CF7530E01CB9998AF0A86C258921ED9EA32FA5961603F1B7717A54DDB776684</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9E37239AFE81ED62361DD4EBF5C6E8FDF190FF53D8D636E6BDC545898F092CED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>52860E1893122A616CA0FDE2D2D6EC668AA7FA7D5EB0FFAEA87633636601953B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA256843D9F9A9B90151AA17457E88C1050ABF49A14AF280C28E00AA802AA580</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B88ED3DB0C34BDA3957E3CB2729F41D16314CDB0594D66BA1413E1676878049E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>434B9E43DBC7EA4E68E117D499B831AA909B777BF5D6BF645CFB66573B3E2FBD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A44445A2140C14EA07CA1193E085DBD6EE2F7476FB896294F5A9C607BCC02252</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>97AD706138381DB0C30E7F998C4F3F54359156C8E40B7C605BD84105079771EA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>916A5DAB2E36C7B3A0E381BC146A3780A335F177F2CE215DDA681E6EFFBFE912</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>79A4C426A0E050AD0679449634FBBC97BC9ED0B6E7CF33232061482311D1B769</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gon-irishub-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uni-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uptick_7000-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>84F4AD97B49ADC3C21C0EDC1ED4616CA8E887489C2CDA9470558F095AE2DC666</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gon-flixnet-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>077DBAFE7D34E3B0D177F3D5B4389D1FFF7370B4DAAED61ED0A232A5114A421B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -824,8 +809,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -922,10 +907,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -961,10 +946,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +985,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1039,10 +1024,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1078,34 +1063,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1145,37 +1130,37 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1222,37 +1207,37 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1294,37 +1279,37 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1366,37 +1351,37 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1448,37 +1433,37 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1563,55 +1548,55 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1633,7 +1618,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1653,60 +1638,60 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1960,13 +1945,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1980,10 +1965,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1994,7 +1979,7 @@
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,42 +1993,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2059,7 +2031,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:I5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2085,31 +2057,23 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
@@ -2137,7 +2101,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2163,16 +2127,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2216,16 +2180,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2261,10 +2225,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2300,10 +2264,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/dolphintwo/evidence.xlsx
+++ b/dolphintwo/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Documents/hashquark/devops/0TODO/gon-evidence/dolphintwo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E070AB28-C95D-DC4B-A69C-4C70937286EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F86FE9-2C92-3A4F-A245-46189E87D453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="-23380" windowWidth="29280" windowHeight="18880" firstSheet="10" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -407,6 +402,46 @@
   </si>
   <si>
     <t>stars1yqfl74853330krw82ye99uxacrdp8x9267t0wkd8jk2y7l7y7r2qj9hm2e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120CF6FA23E8011760E571678734CB72980152B78DB77A3E5542661D3366DFF2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9FEDC959152418A6947BA97D533F4A31A5E335FAB28D3D077E58C107D71C729B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66955D1D2EFB709E7A4D890368140CB3C8F43212D3AB097C83AF5C73EFC0983F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3E32F960395C3D4AE0AE32B6C627F350A3458E018C898EECE2B429744A78928B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5940ADBB115EDF0F1DCCC5AC566B7C675F571E8BE378983BBB3B2091B4A8EFEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBC7F34A194DD6DA515D31732F29F6C6F3D9EC79A99CE01B0BEBB73A9468ADF9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4829E09CC0C8E9F84F66E328891AEA6FF6FF25406961AB60B73A928A890E91C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1061E85526CE9B1F2389166E4FBB490C4F6A794E056A8DDA66CEBE5560C4464F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1EBC4827A7058E44CF4353985E50BCE2030E42D589923CC5C837E419061FF519</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5F8E5002D997CF651CE2A5DC23DBEDEC524A4F341052D5ABE7B59ADEEF966FF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +844,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -827,51 +862,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +934,49 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -919,8 +993,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -938,10 +1012,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -958,8 +1032,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -977,10 +1051,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -997,15 +1071,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1016,10 +1090,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -1027,70 +1101,31 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1125,42 +1160,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1202,42 +1237,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1274,42 +1309,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1346,42 +1381,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1428,42 +1463,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1504,15 +1539,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1543,60 +1578,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1633,65 +1668,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1727,7 +1762,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1741,12 +1778,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1799,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1776,12 +1815,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1836,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1811,12 +1852,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1873,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1846,12 +1889,49 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27C9730-F0FB-9542-905E-BF3047DD7582}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1882,76 +1962,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1984,27 +2064,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2046,27 +2126,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2116,27 +2196,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2169,27 +2249,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2297,49 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -2235,43 +2354,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>